--- a/public/contoh-excel/biodata.xlsx
+++ b/public/contoh-excel/biodata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14025" windowHeight="12150"/>
+    <workbookView windowWidth="28170" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>nim</t>
   </si>
@@ -34,13 +34,22 @@
     <t>angkatan</t>
   </si>
   <si>
+    <t>tempat_lahir</t>
+  </si>
+  <si>
+    <t>tgl_lahir</t>
+  </si>
+  <si>
+    <t>alamat</t>
+  </si>
+  <si>
     <t>dosen_pa</t>
   </si>
   <si>
-    <t>1601020036</t>
-  </si>
-  <si>
-    <t>Cintya</t>
+    <t>2301020036</t>
+  </si>
+  <si>
+    <t>Darma</t>
   </si>
   <si>
     <t>Pagi</t>
@@ -52,10 +61,19 @@
     <t>Teknologi Informasi &amp; Desain</t>
   </si>
   <si>
-    <t>1601020038</t>
-  </si>
-  <si>
-    <t>Antonio</t>
+    <t>Denpasar</t>
+  </si>
+  <si>
+    <t>1999-01-15</t>
+  </si>
+  <si>
+    <t>Gatsu Timur</t>
+  </si>
+  <si>
+    <t>2301020038</t>
+  </si>
+  <si>
+    <t>Yulius</t>
   </si>
   <si>
     <t>Malam</t>
@@ -68,6 +86,12 @@
   </si>
   <si>
     <t>2020</t>
+  </si>
+  <si>
+    <t>1999-01-16</t>
+  </si>
+  <si>
+    <t>Denpasar Selatan</t>
   </si>
 </sst>
 </file>
@@ -77,8 +101,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -86,22 +110,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -120,84 +128,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,8 +151,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,6 +220,42 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -242,43 +266,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,139 +434,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,35 +460,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,15 +484,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -508,13 +499,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,153 +528,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,22 +1033,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="11.4" style="1"/>
     <col min="2" max="2" width="14.1" customWidth="true"/>
     <col min="4" max="4" width="10.8" customWidth="true"/>
     <col min="5" max="5" width="24.9" customWidth="true"/>
     <col min="6" max="6" width="8.8" style="1"/>
+    <col min="7" max="7" width="12.3" style="1" customWidth="true"/>
+    <col min="8" max="8" width="12.8" style="1" customWidth="true"/>
+    <col min="9" max="9" width="17.1" style="1" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1043,53 +1070,80 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1">
         <v>2016</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3">
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3">
         <v>3</v>
       </c>
     </row>
